--- a/data/GESTANTES_MUNICIPIO.xlsx
+++ b/data/GESTANTES_MUNICIPIO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CESAR LOPEZ\Desktop\GOBERNACION 2025\QUINTO INFORME\CARPETA 2\ACTIVIDAD No 6\tablero indicadores ssr cauca\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CESAR LOPEZ\Desktop\tablero-indicadores-ssr-cauca\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCF20E0-2F11-4F60-B3C9-59A6B60FCDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888488C1-FBAE-449E-9ECE-3EA4685E5974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C739D6A1-67E1-44D9-A790-7F549FABFD1E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>ALMAGUER</t>
   </si>
@@ -50,9 +50,6 @@
     <t>BALBOA</t>
   </si>
   <si>
-    <t>BELALCAZAR</t>
-  </si>
-  <si>
     <t>BOLIVAR</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>JAMBALO</t>
   </si>
   <si>
-    <t>JAMUNDI</t>
-  </si>
-  <si>
     <t>LA SIERRA</t>
   </si>
   <si>
@@ -143,9 +137,6 @@
     <t>SUCRE</t>
   </si>
   <si>
-    <t>TIMBIQUI</t>
-  </si>
-  <si>
     <t>TORIBIO</t>
   </si>
   <si>
@@ -161,19 +152,22 @@
     <t>GUAPI</t>
   </si>
   <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
     <t>POPAYÁN</t>
   </si>
   <si>
-    <t>SANTA ROSA</t>
-  </si>
-  <si>
     <t>SANTANDER</t>
   </si>
   <si>
     <t>TIMBIO</t>
+  </si>
+  <si>
+    <t>LOPEZ DE MICAY</t>
+  </si>
+  <si>
+    <t>PATI A</t>
+  </si>
+  <si>
+    <t>VILLA RICA</t>
   </si>
 </sst>
 </file>
@@ -209,8 +203,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,364 +542,348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E335D5A0-1C13-48E5-BA50-5EA11AD053CB}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B29">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="B34">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B15">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="B39">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>34</v>
-      </c>
       <c r="B42">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44">
-        <v>118</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/data/GESTANTES_MUNICIPIO.xlsx
+++ b/data/GESTANTES_MUNICIPIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CESAR LOPEZ\Desktop\tablero-indicadores-ssr-cauca\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888488C1-FBAE-449E-9ECE-3EA4685E5974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE58237-3C77-4EE9-B5DC-FAD4CBF19270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C739D6A1-67E1-44D9-A790-7F549FABFD1E}"/>
   </bookViews>
@@ -544,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E335D5A0-1C13-48E5-BA50-5EA11AD053CB}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
